--- a/data/2019/contagens2019.xlsx
+++ b/data/2019/contagens2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="758" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="758" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="25.11 set + lam (centro)" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="157">
   <si>
     <t>CONTAGEM VOLUMÉTRICA CLASSIFICADA — BICICLETA</t>
   </si>
@@ -1542,32 +1542,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1602,6 +1587,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1634,18 +1646,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1963,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1975,76 +1975,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
       <c r="S1" s="41"/>
       <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="E2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
       <c r="S2" s="38"/>
       <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
       <c r="S3" s="38"/>
       <c r="Z3" s="38"/>
     </row>
@@ -2071,30 +2071,30 @@
       <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
       <c r="S5" s="38"/>
       <c r="Z5" s="38"/>
     </row>
@@ -2103,21 +2103,21 @@
       <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="81" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="84"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="99"/>
       <c r="K7" s="6"/>
       <c r="L7" s="53"/>
       <c r="M7" s="72"/>
@@ -2142,14 +2142,14 @@
       <c r="D8" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>146</v>
@@ -5045,18 +5045,18 @@
     <row r="74" spans="1:18" ht="16.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="M2:R3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5067,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:X8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5090,43 +5090,43 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90"/>
     </row>
     <row r="2" spans="1:24" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="83"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="50" t="s">
@@ -5135,26 +5135,26 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="90"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="85"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="3"/>
@@ -5194,43 +5194,43 @@
       <c r="K5" s="46"/>
       <c r="R5" s="61"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="81" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="81" t="s">
+      <c r="I7" s="96"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82" t="s">
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="83"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="98"/>
       <c r="Q7" s="52"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
@@ -5265,7 +5265,7 @@
         <v>143</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>155</v>
@@ -6491,72 +6491,72 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -6579,30 +6579,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
       <c r="A8" s="75" t="s">
@@ -7839,15 +7839,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7865,72 +7865,72 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -7953,30 +7953,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="62" t="s">
@@ -9253,15 +9253,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="N5:R5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="M2:R3"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="N5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9272,8 +9272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9472,72 +9472,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -9560,30 +9560,41 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="62" t="s">
@@ -9594,11 +9605,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>4</v>
       </c>
@@ -9625,14 +9636,14 @@
       <c r="A8" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>146</v>
+      <c r="B8" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>143</v>
@@ -9643,14 +9654,14 @@
       <c r="G8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>140</v>
+      <c r="H8" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>149</v>
@@ -11071,15 +11082,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11091,7 +11102,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11290,72 +11301,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -11378,30 +11389,41 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
@@ -11412,11 +11434,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>4</v>
       </c>
@@ -11443,14 +11465,14 @@
       <c r="A8" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>146</v>
+      <c r="B8" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>143</v>
@@ -11461,14 +11483,14 @@
       <c r="G8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>140</v>
+      <c r="H8" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>149</v>
@@ -12915,72 +12937,72 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -13003,30 +13025,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
@@ -13037,11 +13059,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>6</v>
       </c>
@@ -14080,15 +14102,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14106,72 +14128,72 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="E2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -14194,30 +14216,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
@@ -14228,11 +14250,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>6</v>
       </c>
@@ -15311,7 +15333,7 @@
   <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -15322,72 +15344,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:26" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3"/>
@@ -15410,30 +15432,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1">
       <c r="B7" s="52" t="s">
@@ -15445,13 +15467,13 @@
       <c r="D7" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F7" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="77" t="s">
         <v>145</v>
       </c>
       <c r="H7" s="52" t="s">
@@ -15480,14 +15502,14 @@
       <c r="D8" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>146</v>
@@ -18537,78 +18559,78 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -18631,30 +18653,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
@@ -18665,11 +18687,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>4</v>
       </c>
@@ -18705,14 +18727,14 @@
       <c r="D8" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>146</v>
@@ -19770,15 +19792,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -19790,78 +19812,78 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -19884,30 +19906,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
@@ -19918,11 +19940,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>4</v>
       </c>
@@ -19958,14 +19980,14 @@
       <c r="D8" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>146</v>
@@ -20979,15 +21001,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="N5:R5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="M2:R3"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="N5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -20999,78 +21021,78 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -21093,30 +21115,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
@@ -21127,11 +21149,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>4</v>
       </c>
@@ -21167,14 +21189,14 @@
       <c r="D8" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>146</v>
@@ -22134,15 +22156,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22154,78 +22176,78 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="95"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -22248,30 +22270,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
       <c r="A8" s="75" t="s">
@@ -22286,14 +22308,14 @@
       <c r="D8" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>146</v>
@@ -23291,78 +23313,78 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:R8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="E2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -23385,30 +23407,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="61"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="75" t="s">
@@ -23419,16 +23441,16 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="78" t="s">
         <v>137</v>
       </c>
       <c r="F7" s="74"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="109" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="78" t="s">
         <v>138</v>
       </c>
       <c r="I7" s="74"/>
-      <c r="J7" s="110"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="6"/>
       <c r="L7" s="53"/>
       <c r="M7" s="53"/>
@@ -23459,14 +23481,14 @@
       <c r="D8" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>146</v>
@@ -24678,15 +24700,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="N5:R5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="M2:R3"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="N5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24698,25 +24720,25 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="38"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
@@ -24731,21 +24753,21 @@
       <c r="W1" s="54"/>
     </row>
     <row r="2" spans="1:23" ht="33" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="38"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
@@ -24760,19 +24782,19 @@
       <c r="W2" s="57"/>
     </row>
     <row r="3" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="38"/>
       <c r="M3" s="58"/>
       <c r="N3" s="58"/>
@@ -24812,21 +24834,21 @@
       <c r="W4" s="57"/>
     </row>
     <row r="5" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="38"/>
       <c r="M5" s="59"/>
       <c r="N5" s="59"/>
@@ -24855,21 +24877,21 @@
       <c r="W6" s="56"/>
     </row>
     <row r="7" spans="1:23" ht="15.95" customHeight="1">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="81" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="84"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="99"/>
       <c r="K7" s="6"/>
       <c r="L7" s="38"/>
       <c r="M7" s="55"/>
@@ -24888,14 +24910,14 @@
       <c r="A8" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="76" t="s">
         <v>143</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="108" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>151</v>
@@ -25353,15 +25375,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25373,7 +25395,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:Q32"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -25396,38 +25418,38 @@
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
       <c r="L1" s="38"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90"/>
     </row>
     <row r="2" spans="1:24" ht="32.1" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="38"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="97"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="101"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="50" t="s">
@@ -25436,21 +25458,21 @@
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="38"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="99"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="3"/>
@@ -25492,13 +25514,13 @@
       <c r="L5" s="38"/>
       <c r="R5" s="61"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
     </row>
     <row r="6" spans="1:24">
       <c r="L6" s="38"/>
@@ -25509,11 +25531,11 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="76" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="52"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="52" t="s">
         <v>109</v>
       </c>
@@ -25524,11 +25546,11 @@
       </c>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="107" t="s">
+      <c r="N7" s="76" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="52"/>
-      <c r="P7" s="108"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="52"/>
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
@@ -25563,7 +25585,7 @@
         <v>143</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>155</v>

--- a/data/2019/contagens2019.xlsx
+++ b/data/2019/contagens2019.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="160">
   <si>
     <t>CONTAGEM VOLUMÉTRICA CLASSIFICADA — BICICLETA</t>
   </si>
@@ -1048,6 +1048,15 @@
   <si>
     <t>cm_fem</t>
   </si>
+  <si>
+    <t>ci_masc</t>
+  </si>
+  <si>
+    <t>ci_fem</t>
+  </si>
+  <si>
+    <t>ci_nid</t>
+  </si>
 </sst>
 </file>
 
@@ -1475,7 +1484,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1557,6 +1565,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1585,33 +1623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1975,76 +1986,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
       <c r="S1" s="41"/>
       <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
       <c r="S2" s="38"/>
       <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
       <c r="S3" s="38"/>
       <c r="Z3" s="38"/>
     </row>
@@ -2071,30 +2082,30 @@
       <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
       <c r="S5" s="38"/>
       <c r="Z5" s="38"/>
     </row>
@@ -2103,82 +2114,82 @@
       <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="96" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="99"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="73"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="72"/>
       <c r="R7" s="6"/>
       <c r="S7" s="38"/>
       <c r="Z7" s="38"/>
     </row>
     <row r="8" spans="1:26" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="74" t="s">
+      <c r="O8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="75" t="s">
+      <c r="P8" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5045,18 +5056,18 @@
     <row r="74" spans="1:18" ht="16.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:R1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5065,18 +5076,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25">
+    <row r="1" spans="1:21" ht="20.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -5086,28 +5094,25 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="90"/>
-    </row>
-    <row r="2" spans="1:24" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="H1" s="49"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="99"/>
+    </row>
+    <row r="2" spans="1:21" ht="32.1" customHeight="1">
+      <c r="A2" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="100" t="s">
         <v>114</v>
       </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
@@ -5117,24 +5122,21 @@
       <c r="L2" s="100"/>
       <c r="M2" s="100"/>
       <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="83"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="O2" s="1"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="92"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="100"/>
       <c r="F3" s="100"/>
       <c r="G3" s="100"/>
@@ -5145,452 +5147,411 @@
       <c r="L3" s="100"/>
       <c r="M3" s="100"/>
       <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="O3" s="2"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="94"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="93" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.95" customHeight="1">
+      <c r="A7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97" t="s">
+      <c r="B7" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="96" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="96" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97" t="s">
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="52" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="75" t="s">
+      <c r="R7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="74" t="s">
+      <c r="S7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="73" t="s">
+      <c r="T7" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:24" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" ht="31.5">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>151</v>
+      <c r="B8" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="O8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="72" t="s">
+      <c r="P8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="Q8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="75" t="s">
+      <c r="R8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="74" t="s">
+      <c r="S8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="73" t="s">
+      <c r="T8" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="U8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:21">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="12">
+        <v>2</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="12">
-        <v>2</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="1">
-        <f t="shared" ref="Q9:Q20" si="0">SUM(B9:P9)</f>
-        <v>2</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="M9" s="13"/>
+      <c r="N9" s="1">
+        <f>SUM(B9:M9)</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="6">
         <v>153</v>
       </c>
-      <c r="S9" s="6">
+      <c r="P9" s="6">
         <v>4</v>
       </c>
-      <c r="T9" s="18">
+      <c r="Q9" s="18">
         <v>26</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="14">
-        <f t="shared" ref="X9:X32" si="1">SUM(R9:W9)</f>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="14">
+        <f t="shared" ref="U9:U32" si="0">SUM(O9:T9)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="27" customFormat="1">
+    <row r="10" spans="1:21" s="27" customFormat="1">
       <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
       <c r="I10" s="23"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="23">
-        <v>1</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="23">
-        <v>1</v>
-      </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="1">
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23">
+        <v>1</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1">
+        <f>SUM(B10:M10)</f>
+        <v>2</v>
+      </c>
+      <c r="O10" s="26">
+        <v>171</v>
+      </c>
+      <c r="P10" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>23</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="26">
-        <v>171</v>
-      </c>
-      <c r="S10" s="26">
-        <v>1</v>
-      </c>
-      <c r="T10" s="22">
-        <v>23</v>
-      </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="26">
-        <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:21">
       <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="12">
+      <c r="G11" s="14"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="12">
         <v>3</v>
       </c>
-      <c r="O11" s="21">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="1">
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="1">
+        <f>SUM(B11:M11)</f>
+        <v>6</v>
+      </c>
+      <c r="O11" s="14">
+        <v>191</v>
+      </c>
+      <c r="P11" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>25</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15">
+        <v>1</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R11" s="14">
-        <v>191</v>
-      </c>
-      <c r="S11" s="14">
-        <v>10</v>
-      </c>
-      <c r="T11" s="15">
-        <v>25</v>
-      </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15">
-        <v>1</v>
-      </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="14">
-        <f t="shared" si="1"/>
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="27" customFormat="1">
+    <row r="12" spans="1:21" s="27" customFormat="1">
       <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="23">
-        <v>2</v>
-      </c>
-      <c r="L12" s="23">
-        <v>2</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="1">
+      <c r="G12" s="26"/>
+      <c r="H12" s="23">
+        <v>2</v>
+      </c>
+      <c r="I12" s="23">
+        <v>2</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1">
+        <f>SUM(B12:M12)</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="26">
+        <v>138</v>
+      </c>
+      <c r="P12" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>17</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22">
+        <v>1</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R12" s="26">
-        <v>138</v>
-      </c>
-      <c r="S12" s="26">
-        <v>12</v>
-      </c>
-      <c r="T12" s="22">
-        <v>17</v>
-      </c>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22">
-        <v>1</v>
-      </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="26">
-        <f t="shared" si="1"/>
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:21">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="21">
+      <c r="G13" s="14"/>
+      <c r="H13" s="21">
         <v>3</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="1">
+      <c r="I13" s="21"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="1">
+        <f>SUM(B13:M13)</f>
+        <v>3</v>
+      </c>
+      <c r="O13" s="14">
+        <v>146</v>
+      </c>
+      <c r="P13" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>12</v>
+      </c>
+      <c r="R13" s="15">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R13" s="14">
-        <v>146</v>
-      </c>
-      <c r="S13" s="14">
-        <v>8</v>
-      </c>
-      <c r="T13" s="15">
-        <v>12</v>
-      </c>
-      <c r="U13" s="15">
-        <v>1</v>
-      </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14">
-        <f t="shared" si="1"/>
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="27" customFormat="1">
+    <row r="14" spans="1:21" s="27" customFormat="1">
       <c r="A14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="1">
+      <c r="M14" s="25"/>
+      <c r="N14" s="1">
+        <f>SUM(B14:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="26">
+        <v>132</v>
+      </c>
+      <c r="P14" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>7</v>
+      </c>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22">
+        <v>1</v>
+      </c>
+      <c r="T14" s="22"/>
+      <c r="U14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="26">
-        <v>132</v>
-      </c>
-      <c r="S14" s="26">
-        <v>2</v>
-      </c>
-      <c r="T14" s="22">
-        <v>7</v>
-      </c>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22">
-        <v>1</v>
-      </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="26">
-        <f t="shared" si="1"/>
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:21">
       <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
@@ -5599,46 +5560,43 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="21">
-        <v>1</v>
-      </c>
-      <c r="L15" s="21"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="21">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1"/>
       <c r="M15" s="13"/>
       <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="1">
+        <f>SUM(B15:M15)</f>
+        <v>4</v>
+      </c>
+      <c r="O15" s="14">
+        <v>138</v>
+      </c>
+      <c r="P15" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>16</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R15" s="14">
-        <v>138</v>
-      </c>
-      <c r="S15" s="14">
-        <v>7</v>
-      </c>
-      <c r="T15" s="15">
-        <v>16</v>
-      </c>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14">
-        <f t="shared" si="1"/>
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="27" customFormat="1">
+    <row r="16" spans="1:21" s="27" customFormat="1">
       <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
@@ -5647,40 +5605,37 @@
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="23"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="23">
+        <v>2</v>
+      </c>
       <c r="L16" s="23"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="23">
-        <v>2</v>
-      </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="1">
+      <c r="N16" s="1">
+        <f>SUM(B16:M16)</f>
+        <v>2</v>
+      </c>
+      <c r="O16" s="26">
+        <v>145</v>
+      </c>
+      <c r="P16" s="26">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>10</v>
+      </c>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R16" s="26">
-        <v>145</v>
-      </c>
-      <c r="S16" s="26">
-        <v>8</v>
-      </c>
-      <c r="T16" s="22">
-        <v>10</v>
-      </c>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="26">
-        <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:21">
       <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
@@ -5689,42 +5644,39 @@
       <c r="D17" s="13"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="21"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="1">
+      <c r="N17" s="1">
+        <f>SUM(B17:M17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>135</v>
+      </c>
+      <c r="P17" s="14">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>7</v>
+      </c>
+      <c r="R17" s="15">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15">
+        <v>2</v>
+      </c>
+      <c r="T17" s="15"/>
+      <c r="U17" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="14">
-        <v>135</v>
-      </c>
-      <c r="S17" s="14">
-        <v>13</v>
-      </c>
-      <c r="T17" s="15">
-        <v>7</v>
-      </c>
-      <c r="U17" s="15">
-        <v>1</v>
-      </c>
-      <c r="V17" s="15">
-        <v>2</v>
-      </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14">
-        <f t="shared" si="1"/>
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="27" customFormat="1">
+    <row r="18" spans="1:21" s="27" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -5735,90 +5687,84 @@
       <c r="D18" s="25"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23">
+        <v>2</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="23">
-        <v>2</v>
-      </c>
-      <c r="L18" s="23">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L18" s="23"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="23">
+      <c r="N18" s="1">
+        <f>SUM(B18:M18)</f>
+        <v>10</v>
+      </c>
+      <c r="O18" s="26">
+        <v>118</v>
+      </c>
+      <c r="P18" s="26">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="22">
         <v>6</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="1">
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R18" s="26">
-        <v>118</v>
-      </c>
-      <c r="S18" s="26">
-        <v>9</v>
-      </c>
-      <c r="T18" s="22">
-        <v>6</v>
-      </c>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="26">
-        <f t="shared" si="1"/>
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:21">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="1"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="21">
+        <v>5</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="21">
+      <c r="N19" s="1">
+        <f>SUM(B19:M19)</f>
+        <v>6</v>
+      </c>
+      <c r="O19" s="14">
+        <v>177</v>
+      </c>
+      <c r="P19" s="14">
         <v>5</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="1">
+      <c r="Q19" s="15">
+        <v>14</v>
+      </c>
+      <c r="R19" s="15">
+        <v>2</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R19" s="14">
-        <v>177</v>
-      </c>
-      <c r="S19" s="14">
-        <v>5</v>
-      </c>
-      <c r="T19" s="15">
-        <v>14</v>
-      </c>
-      <c r="U19" s="15">
-        <v>2</v>
-      </c>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="14">
-        <f t="shared" si="1"/>
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="27" customFormat="1">
+    <row r="20" spans="1:21" s="27" customFormat="1">
       <c r="A20" s="29" t="s">
         <v>19</v>
       </c>
@@ -5827,44 +5773,41 @@
       <c r="D20" s="31"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="30"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="30">
+        <v>2</v>
+      </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="30">
-        <v>2</v>
-      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="1">
+      <c r="M20" s="32"/>
+      <c r="N20" s="1">
+        <f>SUM(B20:M20)</f>
+        <v>2</v>
+      </c>
+      <c r="O20" s="33">
+        <v>188</v>
+      </c>
+      <c r="P20" s="33">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>9</v>
+      </c>
+      <c r="R20" s="29">
+        <v>2</v>
+      </c>
+      <c r="S20" s="29">
+        <v>1</v>
+      </c>
+      <c r="T20" s="29"/>
+      <c r="U20" s="33">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R20" s="33">
-        <v>188</v>
-      </c>
-      <c r="S20" s="33">
-        <v>12</v>
-      </c>
-      <c r="T20" s="29">
-        <v>9</v>
-      </c>
-      <c r="U20" s="29">
-        <v>2</v>
-      </c>
-      <c r="V20" s="29">
-        <v>1</v>
-      </c>
-      <c r="W20" s="29"/>
-      <c r="X20" s="33">
-        <f t="shared" si="1"/>
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:21">
       <c r="A21" s="20" t="s">
         <v>28</v>
       </c>
@@ -5875,198 +5818,186 @@
         <v>1</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="1">
+      <c r="E21" s="1"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="1">
         <v>4</v>
       </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="12">
+        <v>8</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="12">
-        <v>8</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="1">
-        <f t="shared" ref="Q21:Q32" si="2">SUM(B21:P21)</f>
+      <c r="M21" s="13"/>
+      <c r="N21" s="1">
+        <f>SUM(B21:M21)</f>
         <v>14</v>
       </c>
-      <c r="R21" s="6">
+      <c r="O21" s="6">
         <v>229</v>
       </c>
-      <c r="S21" s="6">
+      <c r="P21" s="6">
         <v>16</v>
       </c>
-      <c r="T21" s="18">
+      <c r="Q21" s="18">
         <v>11</v>
       </c>
-      <c r="U21" s="18">
+      <c r="R21" s="18">
         <v>3</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="14">
-        <f t="shared" si="1"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="14">
+        <f t="shared" si="0"/>
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="27" customFormat="1">
+    <row r="22" spans="1:21" s="27" customFormat="1">
       <c r="A22" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="23">
+      <c r="G22" s="26"/>
+      <c r="H22" s="23">
         <v>6</v>
       </c>
+      <c r="I22" s="23">
+        <v>1</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24">
+        <v>11</v>
+      </c>
       <c r="L22" s="23">
         <v>1</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24">
-        <v>11</v>
-      </c>
-      <c r="O22" s="23">
-        <v>1</v>
-      </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="1">
-        <f t="shared" si="2"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="1">
+        <f>SUM(B22:M22)</f>
         <v>19</v>
       </c>
-      <c r="R22" s="26">
+      <c r="O22" s="26">
         <v>223</v>
       </c>
-      <c r="S22" s="26">
+      <c r="P22" s="26">
         <v>25</v>
       </c>
-      <c r="T22" s="22">
+      <c r="Q22" s="22">
         <v>9</v>
       </c>
-      <c r="U22" s="22">
-        <v>2</v>
-      </c>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="26">
-        <f t="shared" si="1"/>
+      <c r="R22" s="22">
+        <v>2</v>
+      </c>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="26">
+        <f t="shared" si="0"/>
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:21">
       <c r="A23" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="1">
+      <c r="G23" s="14"/>
+      <c r="H23" s="1">
         <v>4</v>
       </c>
-      <c r="L23" s="1">
-        <v>2</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="12">
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="12">
         <v>16</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="1">
-        <f t="shared" si="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="1">
+        <f>SUM(B23:M23)</f>
         <v>22</v>
       </c>
-      <c r="R23" s="14">
+      <c r="O23" s="14">
         <v>225</v>
       </c>
-      <c r="S23" s="14">
+      <c r="P23" s="14">
         <v>43</v>
       </c>
-      <c r="T23" s="15">
+      <c r="Q23" s="15">
         <v>19</v>
       </c>
-      <c r="U23" s="15">
-        <v>1</v>
-      </c>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="14">
-        <f t="shared" si="1"/>
+      <c r="R23" s="15">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="14">
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="27" customFormat="1">
+    <row r="24" spans="1:21" s="27" customFormat="1">
       <c r="A24" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
       <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="23">
-        <v>2</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="23">
         <v>7</v>
       </c>
+      <c r="I24" s="23">
+        <v>3</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24">
+        <v>22</v>
+      </c>
       <c r="L24" s="23">
-        <v>3</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="24">
-        <v>22</v>
-      </c>
-      <c r="O24" s="23">
-        <v>2</v>
-      </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="1">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1">
+        <f>SUM(B24:M24)</f>
         <v>36</v>
       </c>
-      <c r="R24" s="26">
+      <c r="O24" s="26">
         <v>281</v>
       </c>
-      <c r="S24" s="26">
+      <c r="P24" s="26">
         <v>39</v>
       </c>
-      <c r="T24" s="22">
+      <c r="Q24" s="22">
         <v>8</v>
       </c>
-      <c r="U24" s="22">
-        <v>2</v>
-      </c>
-      <c r="V24" s="22">
-        <v>1</v>
-      </c>
-      <c r="W24" s="22"/>
-      <c r="X24" s="26">
-        <f t="shared" si="1"/>
+      <c r="R24" s="22">
+        <v>2</v>
+      </c>
+      <c r="S24" s="22">
+        <v>1</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="U24" s="26">
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:21">
       <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
@@ -6075,148 +6006,139 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="21">
+      <c r="G25" s="14"/>
+      <c r="H25" s="21">
         <v>7</v>
       </c>
+      <c r="I25" s="21">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="12">
+        <v>8</v>
+      </c>
       <c r="L25" s="21">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="12">
-        <v>8</v>
-      </c>
-      <c r="O25" s="21">
-        <v>1</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="1">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="1">
+        <f>SUM(B25:M25)</f>
         <v>23</v>
       </c>
-      <c r="R25" s="14">
+      <c r="O25" s="14">
         <v>295</v>
       </c>
-      <c r="S25" s="14">
+      <c r="P25" s="14">
         <v>32</v>
       </c>
-      <c r="T25" s="15">
+      <c r="Q25" s="15">
         <v>15</v>
       </c>
-      <c r="U25" s="15">
-        <v>1</v>
-      </c>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="14">
-        <f t="shared" si="1"/>
+      <c r="R25" s="15">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="14">
+        <f t="shared" si="0"/>
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="27" customFormat="1">
+    <row r="26" spans="1:21" s="27" customFormat="1">
       <c r="A26" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="23">
-        <v>1</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="23">
         <v>18</v>
       </c>
-      <c r="L26" s="23">
+      <c r="I26" s="23">
         <v>3</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24">
+      <c r="J26" s="23"/>
+      <c r="K26" s="24">
         <v>15</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="1">
-        <f t="shared" si="2"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1">
+        <f>SUM(B26:M26)</f>
         <v>37</v>
       </c>
-      <c r="R26" s="26">
+      <c r="O26" s="26">
         <v>296</v>
       </c>
-      <c r="S26" s="26">
+      <c r="P26" s="26">
         <v>44</v>
       </c>
-      <c r="T26" s="22">
+      <c r="Q26" s="22">
         <v>8</v>
       </c>
-      <c r="U26" s="22">
-        <v>1</v>
-      </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="26">
-        <f t="shared" si="1"/>
+      <c r="R26" s="22">
+        <v>1</v>
+      </c>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="26">
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:21">
       <c r="A27" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="21">
+      <c r="G27" s="14"/>
+      <c r="H27" s="21">
         <v>12</v>
       </c>
-      <c r="L27" s="21">
+      <c r="I27" s="21">
         <v>3</v>
       </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="42">
+        <v>19</v>
+      </c>
+      <c r="L27" s="1"/>
       <c r="M27" s="13"/>
-      <c r="N27" s="42">
-        <v>19</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="1">
-        <f t="shared" si="2"/>
+      <c r="N27" s="1">
+        <f>SUM(B27:M27)</f>
         <v>34</v>
       </c>
-      <c r="R27" s="14">
+      <c r="O27" s="14">
         <v>292</v>
       </c>
-      <c r="S27" s="14">
+      <c r="P27" s="14">
         <v>53</v>
       </c>
-      <c r="T27" s="15">
+      <c r="Q27" s="15">
         <v>13</v>
       </c>
-      <c r="U27" s="15">
-        <v>1</v>
-      </c>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="14">
-        <f t="shared" si="1"/>
+      <c r="R27" s="15">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="14">
+        <f t="shared" si="0"/>
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="27" customFormat="1">
+    <row r="28" spans="1:21" s="27" customFormat="1">
       <c r="A28" s="35" t="s">
         <v>35</v>
       </c>
@@ -6225,94 +6147,88 @@
       <c r="D28" s="25"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="23">
+        <v>20</v>
+      </c>
+      <c r="I28" s="23">
+        <v>6</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="23">
         <v>20</v>
       </c>
       <c r="L28" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M28" s="25"/>
-      <c r="N28" s="23">
-        <v>20</v>
-      </c>
-      <c r="O28" s="23">
-        <v>1</v>
-      </c>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="1">
-        <f t="shared" si="2"/>
+      <c r="N28" s="1">
+        <f>SUM(B28:M28)</f>
         <v>47</v>
       </c>
-      <c r="R28" s="26">
+      <c r="O28" s="26">
         <v>259</v>
       </c>
-      <c r="S28" s="26">
+      <c r="P28" s="26">
         <v>48</v>
       </c>
-      <c r="T28" s="22">
+      <c r="Q28" s="22">
         <v>15</v>
       </c>
-      <c r="U28" s="22">
+      <c r="R28" s="22">
         <v>3</v>
       </c>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="26">
-        <f t="shared" si="1"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="26">
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:21">
       <c r="A29" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="21"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="21">
+        <v>10</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="21">
-        <v>10</v>
+      <c r="J29" s="13"/>
+      <c r="K29" s="42">
+        <v>21</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="42">
-        <v>21</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="1">
-        <f t="shared" si="2"/>
+      <c r="N29" s="1">
+        <f>SUM(B29:M29)</f>
         <v>31</v>
       </c>
-      <c r="R29" s="14">
+      <c r="O29" s="14">
         <v>277</v>
       </c>
-      <c r="S29" s="14">
+      <c r="P29" s="14">
         <v>44</v>
       </c>
-      <c r="T29" s="15">
+      <c r="Q29" s="15">
         <v>15</v>
       </c>
-      <c r="U29" s="15">
-        <v>2</v>
-      </c>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="14">
-        <f t="shared" si="1"/>
+      <c r="R29" s="15">
+        <v>2</v>
+      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="14">
+        <f t="shared" si="0"/>
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="27" customFormat="1">
+    <row r="30" spans="1:21" s="27" customFormat="1">
       <c r="A30" s="35" t="s">
         <v>37</v>
       </c>
@@ -6323,96 +6239,90 @@
       <c r="D30" s="25"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23">
+        <v>7</v>
+      </c>
+      <c r="I30" s="23">
+        <v>3</v>
+      </c>
+      <c r="J30" s="25"/>
       <c r="K30" s="23">
+        <v>10</v>
+      </c>
+      <c r="L30" s="23">
+        <v>2</v>
+      </c>
+      <c r="M30" s="25"/>
+      <c r="N30" s="1">
+        <f>SUM(B30:M30)</f>
+        <v>24</v>
+      </c>
+      <c r="O30" s="26">
+        <v>230</v>
+      </c>
+      <c r="P30" s="26">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="22">
         <v>7</v>
       </c>
-      <c r="L30" s="23">
-        <v>3</v>
-      </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="23">
-        <v>10</v>
-      </c>
-      <c r="O30" s="23">
-        <v>2</v>
-      </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="R30" s="26">
-        <v>230</v>
-      </c>
-      <c r="S30" s="26">
-        <v>25</v>
-      </c>
-      <c r="T30" s="22">
-        <v>7</v>
-      </c>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="26">
-        <f t="shared" si="1"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="26">
+        <f t="shared" si="0"/>
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:21">
       <c r="A31" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="21">
         <v>8</v>
       </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="42">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="42">
-        <v>15</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="1">
-        <f t="shared" si="2"/>
+      <c r="N31" s="1">
+        <f>SUM(B31:M31)</f>
         <v>25</v>
       </c>
-      <c r="R31" s="14">
+      <c r="O31" s="14">
         <v>219</v>
       </c>
-      <c r="S31" s="14">
+      <c r="P31" s="14">
         <v>31</v>
       </c>
-      <c r="T31" s="15">
+      <c r="Q31" s="15">
         <v>13</v>
       </c>
-      <c r="U31" s="15">
-        <v>1</v>
-      </c>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="14">
-        <f t="shared" si="1"/>
+      <c r="R31" s="15">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="14">
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="27" customFormat="1">
+    <row r="32" spans="1:21" s="27" customFormat="1">
       <c r="A32" s="36" t="s">
         <v>39</v>
       </c>
@@ -6421,59 +6331,54 @@
       <c r="D32" s="31"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="30">
+        <v>7</v>
+      </c>
+      <c r="I32" s="30">
+        <v>2</v>
+      </c>
+      <c r="J32" s="31"/>
       <c r="K32" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L32" s="30">
         <v>2</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="30">
+      <c r="M32" s="32"/>
+      <c r="N32" s="1">
+        <f>SUM(B32:M32)</f>
+        <v>20</v>
+      </c>
+      <c r="O32" s="33">
+        <v>213</v>
+      </c>
+      <c r="P32" s="33">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="29">
         <v>9</v>
       </c>
-      <c r="O32" s="30">
-        <v>2</v>
-      </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="R32" s="33">
-        <v>213</v>
-      </c>
-      <c r="S32" s="33">
-        <v>28</v>
-      </c>
-      <c r="T32" s="29">
-        <v>9</v>
-      </c>
-      <c r="U32" s="29">
-        <v>1</v>
-      </c>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="33">
-        <f t="shared" si="1"/>
+      <c r="R32" s="29">
+        <v>1</v>
+      </c>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="33">
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="S2:X3"/>
+  <mergeCells count="8">
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="P2:U3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B2:N3"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E2:Q3"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6513,11 +6418,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
       <c r="E2" s="100" t="s">
         <v>117</v>
@@ -6537,11 +6442,11 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
       <c r="E3" s="102"/>
       <c r="F3" s="102"/>
@@ -6579,33 +6484,33 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -6638,22 +6543,22 @@
       <c r="K8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -7887,11 +7792,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
       <c r="E2" s="100" t="s">
         <v>117</v>
@@ -7911,11 +7816,11 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
       <c r="E3" s="102"/>
       <c r="F3" s="102"/>
@@ -7953,69 +7858,69 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="63" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="66"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="63" t="s">
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="68" t="s">
+      <c r="O7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="69" t="s">
+      <c r="P7" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="67" t="s">
+      <c r="Q7" s="66" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -8048,22 +7953,22 @@
       <c r="K8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -8727,7 +8632,7 @@
       <c r="F20" s="30">
         <v>0</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="70">
         <v>0</v>
       </c>
       <c r="H20" s="30">
@@ -9494,11 +9399,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
       <c r="E2" s="107" t="s">
         <v>126</v>
@@ -9518,11 +9423,11 @@
       <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="A3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
       <c r="E3" s="109"/>
       <c r="F3" s="109"/>
@@ -9560,30 +9465,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="2" t="s">
@@ -9597,43 +9502,43 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67" t="s">
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="69" t="s">
+      <c r="O7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="68" t="s">
+      <c r="P7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="67" t="s">
+      <c r="Q7" s="66" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -9666,22 +9571,22 @@
       <c r="K8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -11323,11 +11228,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
       <c r="E2" s="107" t="s">
         <v>126</v>
@@ -11347,11 +11252,11 @@
       <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="A3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
       <c r="E3" s="109"/>
       <c r="F3" s="109"/>
@@ -11389,30 +11294,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="2" t="s">
@@ -11426,43 +11331,43 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="74" t="s">
+      <c r="P7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -11495,22 +11400,22 @@
       <c r="K8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -12959,50 +12864,50 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="A3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -13025,69 +12930,69 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="73" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="74" t="s">
+      <c r="O7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -13120,22 +13025,22 @@
       <c r="K8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -14150,50 +14055,50 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="A3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -14216,69 +14121,69 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="74" t="s">
+      <c r="P7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -14311,22 +14216,22 @@
       <c r="K8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -15344,43 +15249,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.25">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:26" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
       <c r="M2" s="100"/>
       <c r="N2" s="100"/>
@@ -15390,19 +15295,19 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
       <c r="M3" s="102"/>
       <c r="N3" s="102"/>
@@ -15432,57 +15337,57 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>148</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -15490,55 +15395,55 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -16143,12 +16048,12 @@
         <v>69</v>
       </c>
       <c r="S21" s="38"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
       <c r="Z21" s="38"/>
     </row>
     <row r="22" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -16197,12 +16102,12 @@
         <v>74</v>
       </c>
       <c r="S22" s="38"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
       <c r="Z22" s="38"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
@@ -16249,12 +16154,12 @@
         <v>107</v>
       </c>
       <c r="S23" s="38"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
       <c r="Z23" s="38"/>
     </row>
     <row r="24" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -16297,12 +16202,12 @@
         <v>111</v>
       </c>
       <c r="S24" s="38"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
       <c r="Z24" s="38"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
@@ -16341,12 +16246,12 @@
         <v>68</v>
       </c>
       <c r="S25" s="38"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
       <c r="Z25" s="38"/>
     </row>
     <row r="26" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -16389,12 +16294,12 @@
         <v>90</v>
       </c>
       <c r="S26" s="38"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
       <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
@@ -16435,12 +16340,12 @@
         <v>66</v>
       </c>
       <c r="S27" s="38"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
       <c r="Z27" s="38"/>
     </row>
     <row r="28" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -16487,12 +16392,12 @@
         <v>86</v>
       </c>
       <c r="S28" s="38"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
       <c r="Z28" s="38"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
@@ -16533,12 +16438,12 @@
         <v>62</v>
       </c>
       <c r="S29" s="38"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
       <c r="Z29" s="38"/>
     </row>
     <row r="30" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -16583,12 +16488,12 @@
         <v>90</v>
       </c>
       <c r="S30" s="38"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
       <c r="Z30" s="38"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
@@ -16631,12 +16536,12 @@
         <v>83</v>
       </c>
       <c r="S31" s="38"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
       <c r="Z31" s="38"/>
     </row>
     <row r="32" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
@@ -16677,12 +16582,12 @@
         <v>70</v>
       </c>
       <c r="S32" s="38"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
       <c r="Z32" s="38"/>
     </row>
     <row r="33" spans="1:26">
@@ -18565,72 +18470,72 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -18653,117 +18558,117 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="73" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="74" t="s">
+      <c r="O7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -19818,72 +19723,72 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -19906,117 +19811,117 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="74" t="s">
+      <c r="P7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -21027,43 +20932,43 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
       <c r="M2" s="100"/>
       <c r="N2" s="100"/>
@@ -21073,19 +20978,19 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
       <c r="M3" s="102"/>
       <c r="N3" s="102"/>
@@ -21115,117 +21020,117 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="73" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="74" t="s">
+      <c r="O7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -22182,72 +22087,72 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -22270,81 +22175,81 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -23341,50 +23246,50 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -23407,117 +23312,117 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="61"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="78" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="78" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="79"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="52" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="74" t="s">
+      <c r="P7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -24181,7 +24086,7 @@
       <c r="F20" s="30">
         <v>0</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="70">
         <v>0</v>
       </c>
       <c r="H20" s="30">
@@ -24726,87 +24631,87 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="38"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="33" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
       <c r="L2" s="38"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
     </row>
     <row r="3" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="A3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="38"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="1:23" ht="15.95" customHeight="1">
       <c r="A4" s="3"/>
@@ -24821,102 +24726,102 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="38"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="38"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
     </row>
     <row r="6" spans="1:23" ht="15.95" customHeight="1">
       <c r="L6" s="38"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" ht="15.95" customHeight="1">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="96" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="99"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="6"/>
       <c r="L7" s="38"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="56"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="76" t="s">
         <v>155</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -24941,17 +24846,17 @@
         <v>7</v>
       </c>
       <c r="L8" s="38"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="56"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="15.95" customHeight="1">
       <c r="A9" s="20" t="s">
@@ -24973,17 +24878,17 @@
         <v>7</v>
       </c>
       <c r="L9" s="38"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="A10" s="35" t="s">
@@ -25005,17 +24910,17 @@
         <v>12</v>
       </c>
       <c r="L10" s="38"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="15.95" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -25041,17 +24946,17 @@
         <v>13</v>
       </c>
       <c r="L11" s="38"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="A12" s="35" t="s">
@@ -25079,17 +24984,17 @@
         <v>13</v>
       </c>
       <c r="L12" s="38"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" ht="15.95" customHeight="1">
       <c r="A13" s="19" t="s">
@@ -25113,17 +25018,17 @@
         <v>14</v>
       </c>
       <c r="L13" s="38"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
     </row>
     <row r="14" spans="1:23" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="A14" s="35" t="s">
@@ -25149,17 +25054,17 @@
         <v>8</v>
       </c>
       <c r="L14" s="38"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="15.95" customHeight="1">
       <c r="A15" s="19" t="s">
@@ -25183,17 +25088,17 @@
         <v>11</v>
       </c>
       <c r="L15" s="38"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="A16" s="35" t="s">
@@ -25215,17 +25120,17 @@
         <v>9</v>
       </c>
       <c r="L16" s="38"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="15.95" customHeight="1">
       <c r="A17" s="19" t="s">
@@ -25251,17 +25156,17 @@
         <v>11</v>
       </c>
       <c r="L17" s="38"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
     </row>
     <row r="18" spans="1:23" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="A18" s="35" t="s">
@@ -25287,17 +25192,17 @@
         <v>10</v>
       </c>
       <c r="L18" s="38"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
     </row>
     <row r="19" spans="1:23" ht="15.95" customHeight="1">
       <c r="A19" s="19" t="s">
@@ -25323,17 +25228,17 @@
         <v>18</v>
       </c>
       <c r="L19" s="38"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
     </row>
     <row r="20" spans="1:23" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="A20" s="36" t="s">
@@ -25361,17 +25266,17 @@
         <v>13</v>
       </c>
       <c r="L20" s="38"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25392,18 +25297,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B8" sqref="B8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25">
+    <row r="1" spans="1:21" ht="20.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -25413,390 +25315,352 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="38"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="90"/>
-    </row>
-    <row r="2" spans="1:24" ht="32.1" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="38"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="99"/>
+    </row>
+    <row r="2" spans="1:21" ht="32.1" customHeight="1">
+      <c r="A2" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="38"/>
-      <c r="R2" s="1"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="38"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
       <c r="S2" s="100"/>
       <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="101"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="U2" s="101"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="38"/>
-      <c r="R3" s="2"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="38"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
       <c r="S3" s="102"/>
       <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="103"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="U3" s="103"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="38"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="I4" s="38"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="38"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="93" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="38"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="L6" s="38"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.95" customHeight="1">
-      <c r="B7" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="76" t="s">
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.95" customHeight="1">
+      <c r="B7" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="52" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="52" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="76" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="75" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="51"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="52"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="73" t="s">
+      <c r="P7" s="52"/>
+      <c r="Q7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="74" t="s">
+      <c r="R7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="75" t="s">
+      <c r="S7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="73" t="s">
+      <c r="T7" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:24" ht="31.5">
-      <c r="A8" s="75" t="s">
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" ht="31.5">
+      <c r="A8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>151</v>
+      <c r="B8" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="O8" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="72" t="s">
+      <c r="P8" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="Q8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="75" t="s">
+      <c r="R8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="74" t="s">
+      <c r="S8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="73" t="s">
+      <c r="T8" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="U8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:21">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="1">
+      <c r="G9" s="14"/>
+      <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="12">
+      <c r="J9" s="1"/>
+      <c r="K9" s="12">
         <v>10</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="1">
-        <f>SUM(B9:P9)</f>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="1">
+        <f>SUM(B9:M9)</f>
         <v>18</v>
       </c>
-      <c r="R9" s="6">
+      <c r="O9" s="6">
         <v>235</v>
       </c>
-      <c r="S9" s="6">
+      <c r="P9" s="6">
         <v>40</v>
       </c>
-      <c r="T9" s="18">
+      <c r="Q9" s="18">
         <v>5</v>
       </c>
-      <c r="U9" s="18">
-        <v>1</v>
-      </c>
-      <c r="V9" s="18">
-        <v>1</v>
-      </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="14">
-        <f t="shared" ref="X9:X32" si="0">SUM(R9:W9)</f>
+      <c r="R9" s="18">
+        <v>1</v>
+      </c>
+      <c r="S9" s="18">
+        <v>1</v>
+      </c>
+      <c r="T9" s="18"/>
+      <c r="U9" s="14">
+        <f t="shared" ref="U9:U32" si="0">SUM(O9:T9)</f>
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="27" customFormat="1">
+    <row r="10" spans="1:21" s="27" customFormat="1">
       <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23">
+        <v>4</v>
+      </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="23">
         <v>4</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="23">
-        <v>4</v>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24">
+        <v>15</v>
       </c>
       <c r="L10" s="23">
+        <v>1</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1">
+        <f>SUM(B10:M10)</f>
+        <v>27</v>
+      </c>
+      <c r="O10" s="26">
+        <v>285</v>
+      </c>
+      <c r="P10" s="26">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="22">
         <v>3</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24">
-        <v>15</v>
-      </c>
-      <c r="O10" s="23">
-        <v>1</v>
-      </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="1">
-        <f t="shared" ref="Q10:Q32" si="1">SUM(B10:P10)</f>
-        <v>27</v>
-      </c>
-      <c r="R10" s="26">
-        <v>285</v>
-      </c>
-      <c r="S10" s="26">
-        <v>33</v>
-      </c>
-      <c r="T10" s="22">
-        <v>3</v>
-      </c>
-      <c r="U10" s="22">
+      <c r="R10" s="22">
         <v>6</v>
       </c>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="26">
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="26">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:21">
       <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="1">
         <v>7</v>
       </c>
-      <c r="L11" s="1">
-        <v>2</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="12">
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="12">
         <v>16</v>
       </c>
-      <c r="O11" s="21">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="1">
-        <f t="shared" si="1"/>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="1">
+        <f>SUM(B11:M11)</f>
         <v>28</v>
       </c>
-      <c r="R11" s="14">
+      <c r="O11" s="14">
         <v>388</v>
       </c>
-      <c r="S11" s="14">
+      <c r="P11" s="14">
         <v>44</v>
       </c>
-      <c r="T11" s="15">
+      <c r="Q11" s="15">
         <v>3</v>
       </c>
-      <c r="U11" s="15">
-        <v>2</v>
-      </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="14">
+      <c r="R11" s="15">
+        <v>2</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="14">
         <f t="shared" si="0"/>
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="27" customFormat="1">
+    <row r="12" spans="1:21" s="27" customFormat="1">
       <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
@@ -25804,1029 +25668,965 @@
         <v>1</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="23">
+      <c r="G12" s="26"/>
+      <c r="H12" s="23">
         <v>5</v>
       </c>
+      <c r="I12" s="23">
+        <v>2</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24">
+        <v>24</v>
+      </c>
       <c r="L12" s="23">
-        <v>2</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24">
-        <v>24</v>
-      </c>
-      <c r="O12" s="23">
-        <v>1</v>
-      </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="1">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1">
+        <f>SUM(B12:M12)</f>
         <v>33</v>
       </c>
-      <c r="R12" s="26">
+      <c r="O12" s="26">
         <v>385</v>
       </c>
-      <c r="S12" s="26">
+      <c r="P12" s="26">
         <v>47</v>
       </c>
-      <c r="T12" s="22">
+      <c r="Q12" s="22">
         <v>3</v>
       </c>
-      <c r="U12" s="22">
-        <v>1</v>
-      </c>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="26">
+      <c r="R12" s="22">
+        <v>1</v>
+      </c>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="26">
         <f t="shared" si="0"/>
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:21">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="21">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="21">
         <v>3</v>
       </c>
+      <c r="I13" s="21">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="12">
+        <v>20</v>
+      </c>
       <c r="L13" s="21">
-        <v>5</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="12">
-        <v>20</v>
-      </c>
-      <c r="O13" s="21">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="1">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="1">
+        <f>SUM(B13:M13)</f>
         <v>30</v>
       </c>
-      <c r="R13" s="14">
+      <c r="O13" s="14">
         <v>515</v>
       </c>
-      <c r="S13" s="14">
+      <c r="P13" s="14">
         <v>77</v>
       </c>
-      <c r="T13" s="15">
-        <v>1</v>
-      </c>
-      <c r="U13" s="15">
+      <c r="Q13" s="15">
+        <v>1</v>
+      </c>
+      <c r="R13" s="15">
         <v>3</v>
       </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="14">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="27" customFormat="1">
+    <row r="14" spans="1:21" s="27" customFormat="1">
       <c r="A14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="23">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="23">
         <v>5</v>
       </c>
+      <c r="I14" s="23">
+        <v>5</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24">
+        <v>30</v>
+      </c>
       <c r="L14" s="23">
-        <v>5</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24">
-        <v>30</v>
-      </c>
-      <c r="O14" s="23">
         <v>3</v>
       </c>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="1">
-        <f t="shared" si="1"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1">
+        <f>SUM(B14:M14)</f>
         <v>44</v>
       </c>
-      <c r="R14" s="26">
+      <c r="O14" s="26">
         <v>393</v>
       </c>
-      <c r="S14" s="26">
+      <c r="P14" s="26">
         <v>79</v>
       </c>
-      <c r="T14" s="22">
-        <v>1</v>
-      </c>
-      <c r="U14" s="22">
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
+      <c r="R14" s="22">
         <v>3</v>
       </c>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="26">
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="26">
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:21">
       <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="21">
+      <c r="G15" s="14"/>
+      <c r="H15" s="21">
         <v>7</v>
       </c>
-      <c r="L15" s="21">
+      <c r="I15" s="21">
         <v>3</v>
       </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="42">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="42">
-        <v>14</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="1">
-        <f t="shared" si="1"/>
+      <c r="N15" s="1">
+        <f>SUM(B15:M15)</f>
         <v>24</v>
       </c>
-      <c r="R15" s="14">
+      <c r="O15" s="14">
         <v>444</v>
       </c>
-      <c r="S15" s="14">
+      <c r="P15" s="14">
         <v>67</v>
       </c>
-      <c r="T15" s="15">
+      <c r="Q15" s="15">
         <v>5</v>
       </c>
-      <c r="U15" s="15">
+      <c r="R15" s="15">
         <v>3</v>
       </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14">
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="14">
         <f t="shared" si="0"/>
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="27" customFormat="1">
+    <row r="16" spans="1:21" s="27" customFormat="1">
       <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="23"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="23">
-        <v>2</v>
-      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="1">
-        <f t="shared" si="1"/>
+      <c r="N16" s="1">
+        <f>SUM(B16:M16)</f>
         <v>3</v>
       </c>
-      <c r="R16" s="26">
+      <c r="O16" s="26">
         <v>439</v>
       </c>
-      <c r="S16" s="26">
+      <c r="P16" s="26">
         <v>57</v>
       </c>
-      <c r="T16" s="22">
-        <v>2</v>
-      </c>
-      <c r="U16" s="22">
-        <v>2</v>
-      </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="26">
+      <c r="Q16" s="22">
+        <v>2</v>
+      </c>
+      <c r="R16" s="22">
+        <v>2</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="26">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:21">
       <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="21"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="21">
+        <v>2</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="21">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="42">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
       <c r="M17" s="13"/>
-      <c r="N17" s="42">
-        <v>18</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="1">
-        <f t="shared" si="1"/>
+      <c r="N17" s="1">
+        <f>SUM(B17:M17)</f>
         <v>21</v>
       </c>
-      <c r="R17" s="14">
+      <c r="O17" s="14">
         <v>444</v>
       </c>
-      <c r="S17" s="14">
+      <c r="P17" s="14">
         <v>48</v>
       </c>
-      <c r="T17" s="15">
-        <v>2</v>
-      </c>
-      <c r="U17" s="15">
+      <c r="Q17" s="15">
+        <v>2</v>
+      </c>
+      <c r="R17" s="15">
         <v>3</v>
       </c>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="14">
         <f t="shared" si="0"/>
         <v>497</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="27" customFormat="1">
+    <row r="18" spans="1:21" s="27" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23">
+        <v>1</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="25"/>
       <c r="E18" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="23">
-        <v>2</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
+      <c r="J18" s="25"/>
       <c r="K18" s="23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="25"/>
-      <c r="N18" s="23">
-        <v>13</v>
-      </c>
-      <c r="O18" s="23">
-        <v>1</v>
-      </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="1">
-        <f t="shared" si="1"/>
+      <c r="N18" s="1">
+        <f>SUM(B18:M18)</f>
         <v>30</v>
       </c>
-      <c r="R18" s="26">
+      <c r="O18" s="26">
         <v>416</v>
       </c>
-      <c r="S18" s="26">
+      <c r="P18" s="26">
         <v>47</v>
       </c>
-      <c r="T18" s="22">
-        <v>2</v>
-      </c>
-      <c r="U18" s="22">
-        <v>2</v>
-      </c>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="26">
+      <c r="Q18" s="22">
+        <v>2</v>
+      </c>
+      <c r="R18" s="22">
+        <v>2</v>
+      </c>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="26">
         <f t="shared" si="0"/>
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:21">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="13"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="1">
-        <v>2</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="42">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
       <c r="M19" s="13"/>
-      <c r="N19" s="42">
-        <v>13</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="1">
-        <f t="shared" si="1"/>
+      <c r="N19" s="1">
+        <f>SUM(B19:M19)</f>
         <v>17</v>
       </c>
-      <c r="R19" s="14">
+      <c r="O19" s="14">
         <v>372</v>
       </c>
-      <c r="S19" s="14">
+      <c r="P19" s="14">
         <v>28</v>
       </c>
-      <c r="T19" s="15">
+      <c r="Q19" s="15">
         <v>4</v>
       </c>
-      <c r="U19" s="15">
+      <c r="R19" s="15">
         <v>3</v>
       </c>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="14">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="14">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="27" customFormat="1">
+    <row r="20" spans="1:21" s="27" customFormat="1">
       <c r="A20" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="32"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="33"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="30">
-        <v>2</v>
-      </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="30">
         <v>7</v>
       </c>
-      <c r="O20" s="30">
-        <v>1</v>
-      </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="1">
-        <f t="shared" si="1"/>
+      <c r="L20" s="30">
+        <v>1</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="1">
+        <f>SUM(B20:M20)</f>
         <v>11</v>
       </c>
-      <c r="R20" s="33">
+      <c r="O20" s="33">
         <v>342</v>
       </c>
-      <c r="S20" s="33">
+      <c r="P20" s="33">
         <v>32</v>
       </c>
-      <c r="T20" s="29">
-        <v>2</v>
-      </c>
-      <c r="U20" s="29">
+      <c r="Q20" s="29">
+        <v>2</v>
+      </c>
+      <c r="R20" s="29">
         <v>6</v>
       </c>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="33">
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="33">
         <f t="shared" si="0"/>
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:21">
       <c r="A21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="1">
-        <v>3</v>
+      <c r="J21" s="1"/>
+      <c r="K21" s="12">
+        <v>4</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="12">
+      <c r="M21" s="13"/>
+      <c r="N21" s="1">
+        <f>SUM(B21:M21)</f>
+        <v>7</v>
+      </c>
+      <c r="O21" s="6">
+        <v>257</v>
+      </c>
+      <c r="P21" s="16">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="18">
         <v>4</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="R21" s="6">
-        <v>257</v>
-      </c>
-      <c r="S21" s="16">
-        <v>27</v>
-      </c>
-      <c r="T21" s="18">
-        <v>4</v>
-      </c>
-      <c r="U21" s="18">
-        <v>1</v>
-      </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="14">
+      <c r="R21" s="18">
+        <v>1</v>
+      </c>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="14">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="27" customFormat="1">
+    <row r="22" spans="1:21" s="27" customFormat="1">
       <c r="A22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="23">
         <v>1</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24">
+      <c r="J22" s="23"/>
+      <c r="K22" s="24">
         <v>4</v>
       </c>
-      <c r="O22" s="23">
-        <v>1</v>
-      </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="1">
-        <f t="shared" si="1"/>
+      <c r="L22" s="23">
+        <v>1</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="1">
+        <f>SUM(B22:M22)</f>
         <v>6</v>
       </c>
-      <c r="R22" s="26">
+      <c r="O22" s="26">
         <v>259</v>
       </c>
-      <c r="S22" s="28">
+      <c r="P22" s="28">
         <v>21</v>
       </c>
-      <c r="T22" s="22">
+      <c r="Q22" s="22">
         <v>4</v>
       </c>
-      <c r="U22" s="22">
-        <v>1</v>
-      </c>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="26">
+      <c r="R22" s="22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="26">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:21">
       <c r="A23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="12">
+        <v>4</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="12">
-        <v>4</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="1">
-        <f t="shared" si="1"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="1">
+        <f>SUM(B23:M23)</f>
         <v>5</v>
       </c>
-      <c r="R23" s="14">
+      <c r="O23" s="14">
         <v>267</v>
       </c>
-      <c r="S23" s="17">
+      <c r="P23" s="17">
         <v>24</v>
       </c>
-      <c r="T23" s="15">
+      <c r="Q23" s="15">
         <v>3</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15">
-        <v>1</v>
-      </c>
-      <c r="W23" s="15"/>
-      <c r="X23" s="14">
+      <c r="R23" s="15"/>
+      <c r="S23" s="15">
+        <v>1</v>
+      </c>
+      <c r="T23" s="15"/>
+      <c r="U23" s="14">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="27" customFormat="1">
+    <row r="24" spans="1:21" s="27" customFormat="1">
       <c r="A24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
       <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24">
+        <v>3</v>
+      </c>
       <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="24">
-        <v>3</v>
-      </c>
-      <c r="O24" s="23"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="1">
-        <f t="shared" si="1"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1">
+        <f>SUM(B24:M24)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="26">
+      <c r="O24" s="26">
         <v>309</v>
       </c>
-      <c r="S24" s="28">
+      <c r="P24" s="28">
         <v>20</v>
       </c>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
       <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="26">
+      <c r="U24" s="26">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:21">
       <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="21">
+        <v>2</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="21">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="21">
-        <v>1</v>
-      </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="12">
         <v>4</v>
       </c>
-      <c r="O25" s="1">
-        <v>1</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="1">
-        <f t="shared" si="1"/>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="1">
+        <f>SUM(B25:M25)</f>
         <v>8</v>
       </c>
-      <c r="R25" s="14">
+      <c r="O25" s="14">
         <v>302</v>
       </c>
-      <c r="S25" s="17">
+      <c r="P25" s="17">
         <v>32</v>
       </c>
-      <c r="T25" s="15">
+      <c r="Q25" s="15">
         <v>3</v>
       </c>
-      <c r="U25" s="15">
-        <v>1</v>
-      </c>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="14">
+      <c r="R25" s="15">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="14">
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="27" customFormat="1">
+    <row r="26" spans="1:21" s="27" customFormat="1">
       <c r="A26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="23">
-        <v>1</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="23">
         <v>3</v>
       </c>
+      <c r="I26" s="23">
+        <v>1</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24">
+        <v>10</v>
+      </c>
       <c r="L26" s="23">
         <v>1</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24">
-        <v>10</v>
-      </c>
-      <c r="O26" s="23">
-        <v>1</v>
-      </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="1">
-        <f t="shared" si="1"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1">
+        <f>SUM(B26:M26)</f>
         <v>16</v>
       </c>
-      <c r="R26" s="26">
+      <c r="O26" s="26">
         <v>301</v>
       </c>
-      <c r="S26" s="28">
+      <c r="P26" s="28">
         <v>28</v>
       </c>
-      <c r="T26" s="22">
+      <c r="Q26" s="22">
         <v>3</v>
       </c>
-      <c r="U26" s="22">
-        <v>1</v>
-      </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="26">
+      <c r="R26" s="22">
+        <v>1</v>
+      </c>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="26">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:21">
       <c r="A27" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="21">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="21">
         <v>3</v>
       </c>
+      <c r="I27" s="21">
+        <v>4</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="42">
+        <v>11</v>
+      </c>
       <c r="L27" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="13"/>
-      <c r="N27" s="42">
-        <v>11</v>
-      </c>
-      <c r="O27" s="21">
-        <v>1</v>
-      </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="1">
-        <f t="shared" si="1"/>
+      <c r="N27" s="1">
+        <f>SUM(B27:M27)</f>
         <v>20</v>
       </c>
-      <c r="R27" s="14">
+      <c r="O27" s="14">
         <v>309</v>
       </c>
-      <c r="S27" s="17">
+      <c r="P27" s="17">
         <v>24</v>
       </c>
-      <c r="T27" s="15">
-        <v>2</v>
-      </c>
-      <c r="U27" s="15">
-        <v>1</v>
-      </c>
-      <c r="V27" s="15">
-        <v>1</v>
-      </c>
-      <c r="W27" s="15"/>
-      <c r="X27" s="14">
+      <c r="Q27" s="15">
+        <v>2</v>
+      </c>
+      <c r="R27" s="15">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15">
+        <v>1</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="U27" s="14">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="27" customFormat="1">
+    <row r="28" spans="1:21" s="27" customFormat="1">
       <c r="A28" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
       <c r="F28" s="23"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="23">
-        <v>2</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="23">
+        <v>2</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="23">
-        <v>5</v>
-      </c>
-      <c r="L28" s="23">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L28" s="23"/>
       <c r="M28" s="25"/>
-      <c r="N28" s="23">
-        <v>2</v>
-      </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="1">
-        <f t="shared" si="1"/>
+      <c r="N28" s="1">
+        <f>SUM(B28:M28)</f>
         <v>11</v>
       </c>
-      <c r="R28" s="26">
+      <c r="O28" s="26">
         <v>270</v>
       </c>
-      <c r="S28" s="28">
+      <c r="P28" s="28">
         <v>40</v>
       </c>
-      <c r="T28" s="22">
-        <v>2</v>
-      </c>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22">
-        <v>1</v>
-      </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="26">
+      <c r="Q28" s="22">
+        <v>2</v>
+      </c>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22">
+        <v>1</v>
+      </c>
+      <c r="T28" s="22"/>
+      <c r="U28" s="26">
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:21">
       <c r="A29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="21">
-        <v>4</v>
+      <c r="J29" s="13"/>
+      <c r="K29" s="42">
+        <v>7</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="42">
-        <v>7</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="1">
-        <f t="shared" si="1"/>
+      <c r="N29" s="1">
+        <f>SUM(B29:M29)</f>
         <v>12</v>
       </c>
-      <c r="R29" s="14">
+      <c r="O29" s="14">
         <v>263</v>
       </c>
-      <c r="S29" s="17">
+      <c r="P29" s="17">
         <v>32</v>
       </c>
-      <c r="T29" s="15">
-        <v>1</v>
-      </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="14">
+      <c r="Q29" s="15">
+        <v>1</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="14">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="27" customFormat="1">
+    <row r="30" spans="1:21" s="27" customFormat="1">
       <c r="A30" s="35" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="23">
-        <v>2</v>
-      </c>
+      <c r="E30" s="23">
+        <v>2</v>
+      </c>
+      <c r="F30" s="23">
+        <v>1</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="23">
         <v>1</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="23"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="23">
+        <v>1</v>
+      </c>
       <c r="L30" s="23">
         <v>1</v>
       </c>
       <c r="M30" s="25"/>
-      <c r="N30" s="23">
-        <v>1</v>
-      </c>
-      <c r="O30" s="23">
-        <v>1</v>
-      </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="1">
-        <f t="shared" si="1"/>
+      <c r="N30" s="1">
+        <f>SUM(B30:M30)</f>
         <v>6</v>
       </c>
-      <c r="R30" s="26">
+      <c r="O30" s="26">
         <v>253</v>
       </c>
-      <c r="S30" s="28">
+      <c r="P30" s="28">
         <v>25</v>
       </c>
-      <c r="T30" s="22">
-        <v>2</v>
-      </c>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="26">
+      <c r="Q30" s="22">
+        <v>2</v>
+      </c>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="26">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:21">
       <c r="A31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="21"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="21">
+        <v>3</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="21">
-        <v>3</v>
+      <c r="J31" s="13"/>
+      <c r="K31" s="42">
+        <v>6</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="42">
-        <v>6</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="1">
-        <f t="shared" si="1"/>
+      <c r="N31" s="1">
+        <f>SUM(B31:M31)</f>
         <v>9</v>
       </c>
-      <c r="R31" s="14">
+      <c r="O31" s="14">
         <v>258</v>
       </c>
-      <c r="S31" s="17">
+      <c r="P31" s="17">
         <v>28</v>
       </c>
-      <c r="T31" s="15">
-        <v>1</v>
-      </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="14">
+      <c r="Q31" s="15">
+        <v>1</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="14">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="27" customFormat="1">
+    <row r="32" spans="1:21" s="27" customFormat="1">
       <c r="A32" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="30">
+        <v>1</v>
+      </c>
       <c r="I32" s="30"/>
-      <c r="J32" s="33"/>
+      <c r="J32" s="31"/>
       <c r="K32" s="30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="30">
-        <v>8</v>
-      </c>
-      <c r="O32" s="30"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="1">
-        <f t="shared" si="1"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="1">
+        <f>SUM(B32:M32)</f>
         <v>9</v>
       </c>
-      <c r="R32" s="33">
+      <c r="O32" s="33">
         <v>213</v>
       </c>
-      <c r="S32" s="34">
+      <c r="P32" s="34">
         <v>24</v>
       </c>
-      <c r="T32" s="29">
-        <v>2</v>
-      </c>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="33">
+      <c r="Q32" s="29">
+        <v>2</v>
+      </c>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="33">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="S2:X3"/>
-    <mergeCell ref="T5:X5"/>
+  <mergeCells count="4">
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="P2:U3"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/2019/contagens2019.xlsx
+++ b/data/2019/contagens2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="758" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="758" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="25.11 set + lam (centro)" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="163">
   <si>
     <t>CONTAGEM VOLUMÉTRICA CLASSIFICADA — BICICLETA</t>
   </si>
@@ -1057,6 +1057,15 @@
   <si>
     <t>ci_nid</t>
   </si>
+  <si>
+    <t>lamenha 22h</t>
+  </si>
+  <si>
+    <t>lamenha pico</t>
+  </si>
+  <si>
+    <t>bento pico</t>
+  </si>
 </sst>
 </file>
 
@@ -1565,33 +1574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,6 +1605,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1974,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1986,76 +1995,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
       <c r="S1" s="41"/>
       <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="E2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
       <c r="S2" s="38"/>
       <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
       <c r="S3" s="38"/>
       <c r="Z3" s="38"/>
     </row>
@@ -2082,30 +2091,30 @@
       <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
       <c r="S5" s="38"/>
       <c r="Z5" s="38"/>
     </row>
@@ -2114,21 +2123,21 @@
       <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="85" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="88"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="99"/>
       <c r="K7" s="6"/>
       <c r="L7" s="52"/>
       <c r="M7" s="71"/>
@@ -5056,18 +5065,18 @@
     <row r="74" spans="1:18" ht="16.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:K3"/>
     <mergeCell ref="M2:R3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:R1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5078,7 +5087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -5095,13 +5104,13 @@
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="49"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="99"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="90"/>
     </row>
     <row r="2" spans="1:21" ht="32.1" customHeight="1">
       <c r="A2" s="79" t="s">
@@ -5123,12 +5132,12 @@
       <c r="M2" s="100"/>
       <c r="N2" s="100"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="83"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="50" t="s">
@@ -5148,12 +5157,12 @@
       <c r="M3" s="100"/>
       <c r="N3" s="100"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="94"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="85"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3"/>
@@ -5187,38 +5196,38 @@
       <c r="H5" s="46"/>
       <c r="O5" s="60"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="82" t="s">
+      <c r="Q5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="84"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="95"/>
     </row>
     <row r="7" spans="1:21" ht="15.95" customHeight="1">
       <c r="A7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="85" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="85" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86" t="s">
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="87"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="51"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
@@ -5320,7 +5329,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="13"/>
       <c r="N9" s="1">
-        <f>SUM(B9:M9)</f>
+        <f t="shared" ref="N9:N32" si="0">SUM(B9:M9)</f>
         <v>2</v>
       </c>
       <c r="O9" s="6">
@@ -5336,7 +5345,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
       <c r="U9" s="14">
-        <f t="shared" ref="U9:U32" si="0">SUM(O9:T9)</f>
+        <f t="shared" ref="U9:U32" si="1">SUM(O9:T9)</f>
         <v>183</v>
       </c>
     </row>
@@ -5361,7 +5370,7 @@
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="1">
-        <f>SUM(B10:M10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O10" s="26">
@@ -5377,7 +5386,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
@@ -5406,7 +5415,7 @@
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="1">
-        <f>SUM(B11:M11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O11" s="14">
@@ -5424,7 +5433,7 @@
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>227</v>
       </c>
     </row>
@@ -5449,7 +5458,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="25"/>
       <c r="N12" s="1">
-        <f>SUM(B12:M12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O12" s="26">
@@ -5467,7 +5476,7 @@
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
     </row>
@@ -5490,7 +5499,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="13"/>
       <c r="N13" s="1">
-        <f>SUM(B13:M13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="O13" s="14">
@@ -5508,7 +5517,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>167</v>
       </c>
     </row>
@@ -5529,7 +5538,7 @@
       <c r="L14" s="23"/>
       <c r="M14" s="25"/>
       <c r="N14" s="1">
-        <f>SUM(B14:M14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14" s="26">
@@ -5547,7 +5556,7 @@
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
     </row>
@@ -5576,7 +5585,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="13"/>
       <c r="N15" s="1">
-        <f>SUM(B15:M15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O15" s="14">
@@ -5592,7 +5601,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161</v>
       </c>
     </row>
@@ -5615,7 +5624,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1">
-        <f>SUM(B16:M16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O16" s="26">
@@ -5631,7 +5640,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
     </row>
@@ -5652,7 +5661,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="13"/>
       <c r="N17" s="1">
-        <f>SUM(B17:M17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" s="14">
@@ -5672,7 +5681,7 @@
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
     </row>
@@ -5701,7 +5710,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="25"/>
       <c r="N18" s="1">
-        <f>SUM(B18:M18)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O18" s="26">
@@ -5717,7 +5726,7 @@
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
     </row>
@@ -5742,7 +5751,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="13"/>
       <c r="N19" s="1">
-        <f>SUM(B19:M19)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O19" s="14">
@@ -5760,7 +5769,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
     </row>
@@ -5783,7 +5792,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="32"/>
       <c r="N20" s="1">
-        <f>SUM(B20:M20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O20" s="33">
@@ -5803,7 +5812,7 @@
       </c>
       <c r="T20" s="29"/>
       <c r="U20" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>212</v>
       </c>
     </row>
@@ -5832,7 +5841,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="13"/>
       <c r="N21" s="1">
-        <f>SUM(B21:M21)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="O21" s="6">
@@ -5850,7 +5859,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
@@ -5879,7 +5888,7 @@
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="1">
-        <f>SUM(B22:M22)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="O22" s="26">
@@ -5897,7 +5906,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259</v>
       </c>
     </row>
@@ -5924,7 +5933,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="13"/>
       <c r="N23" s="1">
-        <f>SUM(B23:M23)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="O23" s="14">
@@ -5942,7 +5951,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
     </row>
@@ -5973,7 +5982,7 @@
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="1">
-        <f>SUM(B24:M24)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="O24" s="26">
@@ -5993,7 +6002,7 @@
       </c>
       <c r="T24" s="22"/>
       <c r="U24" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>331</v>
       </c>
     </row>
@@ -6024,7 +6033,7 @@
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="1">
-        <f>SUM(B25:M25)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="O25" s="14">
@@ -6042,7 +6051,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>343</v>
       </c>
     </row>
@@ -6071,7 +6080,7 @@
       <c r="L26" s="23"/>
       <c r="M26" s="25"/>
       <c r="N26" s="1">
-        <f>SUM(B26:M26)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="O26" s="26">
@@ -6089,7 +6098,7 @@
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
       <c r="U26" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349</v>
       </c>
     </row>
@@ -6116,7 +6125,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="13"/>
       <c r="N27" s="1">
-        <f>SUM(B27:M27)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="O27" s="14">
@@ -6134,7 +6143,7 @@
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>359</v>
       </c>
     </row>
@@ -6163,7 +6172,7 @@
       </c>
       <c r="M28" s="25"/>
       <c r="N28" s="1">
-        <f>SUM(B28:M28)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="O28" s="26">
@@ -6181,7 +6190,7 @@
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
       <c r="U28" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
     </row>
@@ -6206,7 +6215,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="13"/>
       <c r="N29" s="1">
-        <f>SUM(B29:M29)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="O29" s="14">
@@ -6224,7 +6233,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>338</v>
       </c>
     </row>
@@ -6255,7 +6264,7 @@
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="1">
-        <f>SUM(B30:M30)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="O30" s="26">
@@ -6271,7 +6280,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
       <c r="U30" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262</v>
       </c>
     </row>
@@ -6300,7 +6309,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="13"/>
       <c r="N31" s="1">
-        <f>SUM(B31:M31)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="O31" s="14">
@@ -6318,7 +6327,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
     </row>
@@ -6347,7 +6356,7 @@
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="1">
-        <f>SUM(B32:M32)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O32" s="33">
@@ -6365,7 +6374,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
       <c r="U32" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>251</v>
       </c>
     </row>
@@ -6418,11 +6427,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
       <c r="E2" s="100" t="s">
         <v>117</v>
@@ -6442,11 +6451,11 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="102"/>
       <c r="F3" s="102"/>
@@ -6484,30 +6493,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
       <c r="A8" s="74" t="s">
@@ -7792,11 +7801,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
       <c r="E2" s="100" t="s">
         <v>117</v>
@@ -7816,11 +7825,11 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="102"/>
       <c r="F3" s="102"/>
@@ -7858,30 +7867,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="61" t="s">
@@ -9177,8 +9186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I21" activeCellId="2" sqref="C21:C32 F21:F32 I21:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9399,11 +9408,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
       <c r="E2" s="107" t="s">
         <v>126</v>
@@ -9423,11 +9432,11 @@
       <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="109"/>
       <c r="F3" s="109"/>
@@ -9465,30 +9474,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="2" t="s">
@@ -11006,8 +11015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" activeCellId="2" sqref="I21:I32 F21:F33 C21:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11228,11 +11237,11 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
       <c r="E2" s="107" t="s">
         <v>126</v>
@@ -11252,11 +11261,11 @@
       <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
       <c r="E3" s="109"/>
       <c r="F3" s="109"/>
@@ -11294,30 +11303,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="2" t="s">
@@ -12836,7 +12845,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="K21" sqref="K21:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12864,50 +12873,50 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -12930,30 +12939,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -14027,7 +14036,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K21" sqref="K21:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14055,50 +14064,50 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="E2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -14121,30 +14130,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -15237,8 +15246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -15249,43 +15258,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:26" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
       <c r="M2" s="100"/>
       <c r="N2" s="100"/>
@@ -15295,19 +15304,19 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
       <c r="M3" s="102"/>
       <c r="N3" s="102"/>
@@ -15337,30 +15346,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="15.95" customHeight="1">
       <c r="B7" s="51" t="s">
@@ -17405,8 +17414,13 @@
       </c>
       <c r="S49" s="38"/>
       <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
+      <c r="U49" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="V49" s="38">
+        <f>262+198+13+38+52</f>
+        <v>563</v>
+      </c>
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
       <c r="Y49" s="38"/>
@@ -17453,8 +17467,13 @@
       </c>
       <c r="S50" s="38"/>
       <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
+      <c r="U50" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="V50" s="38">
+        <f>289+8+29+184+4+46</f>
+        <v>560</v>
+      </c>
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
       <c r="Y50" s="38"/>
@@ -17505,8 +17524,13 @@
       </c>
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
+      <c r="U51" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="V51" s="38">
+        <f>81+41+114+7+21</f>
+        <v>264</v>
+      </c>
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
       <c r="Y51" s="38"/>
@@ -18463,79 +18487,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I21" activeCellId="1" sqref="C21:C32 I21:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -18558,30 +18582,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -19716,79 +19740,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I21" activeCellId="2" sqref="C21:C32 F21:F32 I21:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -19811,30 +19835,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -20926,49 +20950,49 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K21" sqref="K21:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
       <c r="M2" s="100"/>
       <c r="N2" s="100"/>
@@ -20978,19 +21002,19 @@
       <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
       <c r="M3" s="102"/>
       <c r="N3" s="102"/>
@@ -21020,30 +21044,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -22081,78 +22105,78 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K21" sqref="K21:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -22175,30 +22199,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="8" spans="1:18" ht="31.5">
       <c r="A8" s="74" t="s">
@@ -23246,50 +23270,50 @@
       <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="32.1" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="E2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3"/>
@@ -23312,30 +23336,30 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="60"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="7" spans="1:18" ht="15.95" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -24631,19 +24655,19 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="38"/>
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
@@ -24658,21 +24682,21 @@
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="33" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="38"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
@@ -24687,19 +24711,19 @@
       <c r="W2" s="56"/>
     </row>
     <row r="3" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="38"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
@@ -24739,21 +24763,21 @@
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="15.95" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="38"/>
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
@@ -24782,21 +24806,21 @@
       <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" ht="15.95" customHeight="1">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="85" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="88"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="99"/>
       <c r="K7" s="6"/>
       <c r="L7" s="38"/>
       <c r="M7" s="54"/>
@@ -25317,27 +25341,27 @@
       <c r="G1" s="48"/>
       <c r="H1" s="49"/>
       <c r="I1" s="38"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="99"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="90"/>
     </row>
     <row r="2" spans="1:21" ht="32.1" customHeight="1">
       <c r="A2" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="38"/>
       <c r="O2" s="1"/>
       <c r="P2" s="100"/>
@@ -25351,13 +25375,13 @@
       <c r="A3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="38"/>
       <c r="O3" s="2"/>
       <c r="P3" s="102"/>
@@ -25401,13 +25425,13 @@
       <c r="I5" s="38"/>
       <c r="O5" s="60"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="82" t="s">
+      <c r="Q5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="84"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="95"/>
     </row>
     <row r="6" spans="1:21">
       <c r="I6" s="38"/>
@@ -25538,7 +25562,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="13"/>
       <c r="N9" s="1">
-        <f>SUM(B9:M9)</f>
+        <f t="shared" ref="N9:N32" si="0">SUM(B9:M9)</f>
         <v>18</v>
       </c>
       <c r="O9" s="6">
@@ -25558,7 +25582,7 @@
       </c>
       <c r="T9" s="18"/>
       <c r="U9" s="14">
-        <f t="shared" ref="U9:U32" si="0">SUM(O9:T9)</f>
+        <f t="shared" ref="U9:U32" si="1">SUM(O9:T9)</f>
         <v>282</v>
       </c>
     </row>
@@ -25589,7 +25613,7 @@
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="1">
-        <f>SUM(B10:M10)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="O10" s="26">
@@ -25607,7 +25631,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327</v>
       </c>
     </row>
@@ -25638,7 +25662,7 @@
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="1">
-        <f>SUM(B11:M11)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="O11" s="14">
@@ -25656,7 +25680,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>437</v>
       </c>
     </row>
@@ -25687,7 +25711,7 @@
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="1">
-        <f>SUM(B12:M12)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="O12" s="26">
@@ -25705,7 +25729,7 @@
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>436</v>
       </c>
     </row>
@@ -25736,7 +25760,7 @@
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="1">
-        <f>SUM(B13:M13)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O13" s="14">
@@ -25754,7 +25778,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
     </row>
@@ -25785,7 +25809,7 @@
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="1">
-        <f>SUM(B14:M14)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="O14" s="26">
@@ -25803,7 +25827,7 @@
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>476</v>
       </c>
     </row>
@@ -25830,7 +25854,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="13"/>
       <c r="N15" s="1">
-        <f>SUM(B15:M15)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="O15" s="14">
@@ -25848,7 +25872,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>519</v>
       </c>
     </row>
@@ -25873,7 +25897,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1">
-        <f>SUM(B16:M16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="O16" s="26">
@@ -25891,7 +25915,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -25918,7 +25942,7 @@
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="1">
-        <f>SUM(B17:M17)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="O17" s="14">
@@ -25936,7 +25960,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>497</v>
       </c>
     </row>
@@ -25969,7 +25993,7 @@
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="1">
-        <f>SUM(B18:M18)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O18" s="26">
@@ -25987,7 +26011,7 @@
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
     </row>
@@ -26016,7 +26040,7 @@
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="1">
-        <f>SUM(B19:M19)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="O19" s="14">
@@ -26034,7 +26058,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>407</v>
       </c>
     </row>
@@ -26063,7 +26087,7 @@
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="1">
-        <f>SUM(B20:M20)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O20" s="33">
@@ -26081,7 +26105,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="29"/>
       <c r="U20" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>382</v>
       </c>
     </row>
@@ -26106,7 +26130,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="13"/>
       <c r="N21" s="1">
-        <f>SUM(B21:M21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="O21" s="6">
@@ -26124,7 +26148,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
     </row>
@@ -26151,7 +26175,7 @@
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="1">
-        <f>SUM(B22:M22)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O22" s="26">
@@ -26169,7 +26193,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
     </row>
@@ -26194,7 +26218,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="13"/>
       <c r="N23" s="1">
-        <f>SUM(B23:M23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O23" s="14">
@@ -26212,7 +26236,7 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
     </row>
@@ -26237,7 +26261,7 @@
       <c r="L24" s="23"/>
       <c r="M24" s="25"/>
       <c r="N24" s="1">
-        <f>SUM(B24:M24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O24" s="26">
@@ -26251,7 +26275,7 @@
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
       <c r="U24" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>329</v>
       </c>
     </row>
@@ -26280,7 +26304,7 @@
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="1">
-        <f>SUM(B25:M25)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O25" s="14">
@@ -26298,7 +26322,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>338</v>
       </c>
     </row>
@@ -26329,7 +26353,7 @@
       </c>
       <c r="M26" s="25"/>
       <c r="N26" s="1">
-        <f>SUM(B26:M26)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="O26" s="26">
@@ -26347,7 +26371,7 @@
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
       <c r="U26" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>333</v>
       </c>
     </row>
@@ -26378,7 +26402,7 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="1">
-        <f>SUM(B27:M27)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O27" s="14">
@@ -26398,7 +26422,7 @@
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
     </row>
@@ -26427,7 +26451,7 @@
       <c r="L28" s="23"/>
       <c r="M28" s="25"/>
       <c r="N28" s="1">
-        <f>SUM(B28:M28)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O28" s="26">
@@ -26445,7 +26469,7 @@
       </c>
       <c r="T28" s="22"/>
       <c r="U28" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>313</v>
       </c>
     </row>
@@ -26472,7 +26496,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="13"/>
       <c r="N29" s="1">
-        <f>SUM(B29:M29)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O29" s="14">
@@ -26488,7 +26512,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>296</v>
       </c>
     </row>
@@ -26519,7 +26543,7 @@
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="1">
-        <f>SUM(B30:M30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O30" s="26">
@@ -26535,7 +26559,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
       <c r="U30" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
     </row>
@@ -26560,7 +26584,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="13"/>
       <c r="N31" s="1">
-        <f>SUM(B31:M31)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="O31" s="14">
@@ -26576,7 +26600,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287</v>
       </c>
     </row>
@@ -26601,7 +26625,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="32"/>
       <c r="N32" s="1">
-        <f>SUM(B32:M32)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="O32" s="33">
@@ -26617,7 +26641,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
       <c r="U32" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>239</v>
       </c>
     </row>
